--- a/1. IMPACT TEST/Mechanical Test DB - Impact.xlsx
+++ b/1. IMPACT TEST/Mechanical Test DB - Impact.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
   <si>
     <t>shoe_num</t>
   </si>
@@ -193,15 +193,9 @@
     <t>https://runrepeat.com/nike-zoom-pegasus-turbo</t>
   </si>
   <si>
-    <t>RGB FLEX without INSOLE</t>
-  </si>
-  <si>
     <t>RGB FLOW</t>
   </si>
   <si>
-    <t>RGB FIT</t>
-  </si>
-  <si>
     <t>ZOOM FLY FLIGHT KNIT</t>
   </si>
   <si>
@@ -214,21 +208,6 @@
     <t>https://www.youtube.com/watch?v=dqp5gDTzfQk</t>
   </si>
   <si>
-    <t>JY CUSHION</t>
-  </si>
-  <si>
-    <t>JY RACE</t>
-  </si>
-  <si>
-    <t>FLOW RN</t>
-  </si>
-  <si>
-    <t>RACER SILVA</t>
-  </si>
-  <si>
-    <t>SYNDICATOR</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -245,18 +224,6 @@
   </si>
   <si>
     <t>D2</t>
-  </si>
-  <si>
-    <t>SKY RUNNER-A</t>
-  </si>
-  <si>
-    <t>SKY RUNNER-B</t>
-  </si>
-  <si>
-    <t>SKY RUNNER-C</t>
-  </si>
-  <si>
-    <t>SKY RUNNER-D</t>
   </si>
   <si>
     <t>FLOAT FIT</t>
@@ -424,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -454,9 +421,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -510,8 +474,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W54" displayName="표1" name="표1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:W54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W43" displayName="표1" name="표1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:W43"/>
   <tableColumns count="23">
     <tableColumn name="shoe_num" id="1"/>
     <tableColumn name="test_date" id="2"/>
@@ -829,35 +793,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="19" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="20" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="21" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="38.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="22" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="21" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="22" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="22" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="23" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="21" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="19" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="23" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="19" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="19" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="22" width="95.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="20" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="21" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="20" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="21" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="21" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="22" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="20" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="22" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="18" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="21" width="95.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1700,7 +1664,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5">
-        <v>10015</v>
+        <v>10016</v>
       </c>
       <c r="B15" s="6">
         <v>43626</v>
@@ -1726,17 +1690,17 @@
         <v>270</v>
       </c>
       <c r="M15" s="9">
-        <v>53.5</v>
+        <v>53.83333333</v>
       </c>
       <c r="N15" s="9">
-        <v>25.73333333</v>
+        <v>26.35</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="9">
-        <v>11.8</v>
+        <v>14.4</v>
       </c>
       <c r="Q15" s="9">
-        <v>22.13333333</v>
+        <v>26.28333333</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>27</v>
@@ -1757,7 +1721,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
-        <v>10016</v>
+        <v>10018</v>
       </c>
       <c r="B16" s="6">
         <v>43626</v>
@@ -1766,7 +1730,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>60</v>
@@ -1783,17 +1747,19 @@
         <v>270</v>
       </c>
       <c r="M16" s="9">
-        <v>53.83333333</v>
-      </c>
-      <c r="N16" s="9">
-        <v>26.35</v>
-      </c>
-      <c r="O16" s="10"/>
+        <v>52.5</v>
+      </c>
+      <c r="N16" s="5">
+        <v>25</v>
+      </c>
+      <c r="O16" s="5">
+        <v>238</v>
+      </c>
       <c r="P16" s="9">
-        <v>14.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q16" s="9">
-        <v>26.28333333</v>
+        <v>33.55</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>27</v>
@@ -1810,11 +1776,13 @@
       <c r="V16" s="5">
         <v>30</v>
       </c>
-      <c r="W16" s="8"/>
+      <c r="W16" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5">
-        <v>10017</v>
+        <v>10019</v>
       </c>
       <c r="B17" s="6">
         <v>43626</v>
@@ -1823,10 +1791,10 @@
         <v>23</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -1839,18 +1807,20 @@
       <c r="L17" s="5">
         <v>270</v>
       </c>
-      <c r="M17" s="9">
-        <v>49.5</v>
-      </c>
-      <c r="N17" s="9">
-        <v>25.8</v>
-      </c>
-      <c r="O17" s="10"/>
+      <c r="M17" s="5">
+        <v>25</v>
+      </c>
+      <c r="N17" s="5">
+        <v>25</v>
+      </c>
+      <c r="O17" s="5">
+        <v>214</v>
+      </c>
       <c r="P17" s="9">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="Q17" s="9">
-        <v>22.45</v>
+        <v>23.6</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>27</v>
@@ -1867,49 +1837,49 @@
       <c r="V17" s="5">
         <v>30</v>
       </c>
-      <c r="W17" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="W17" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
-        <v>10018</v>
+        <v>10029</v>
       </c>
       <c r="B18" s="6">
-        <v>43626</v>
+        <v>43914</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="5">
         <v>270</v>
       </c>
-      <c r="M18" s="9">
-        <v>52.5</v>
-      </c>
-      <c r="N18" s="5">
-        <v>25</v>
-      </c>
-      <c r="O18" s="5">
-        <v>238</v>
-      </c>
+      <c r="M18" s="5">
+        <v>38</v>
+      </c>
+      <c r="N18" s="9">
+        <v>24.4</v>
+      </c>
+      <c r="O18" s="10"/>
       <c r="P18" s="9">
-        <v>24.2</v>
+        <v>18.5</v>
       </c>
       <c r="Q18" s="9">
-        <v>33.55</v>
+        <v>18.5</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>27</v>
@@ -1926,31 +1896,29 @@
       <c r="V18" s="5">
         <v>30</v>
       </c>
-      <c r="W18" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="W18" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
-        <v>10019</v>
+        <v>10030</v>
       </c>
       <c r="B19" s="6">
-        <v>43626</v>
+        <v>43914</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1958,19 +1926,17 @@
         <v>270</v>
       </c>
       <c r="M19" s="5">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N19" s="5">
         <v>25</v>
       </c>
-      <c r="O19" s="5">
-        <v>214</v>
-      </c>
+      <c r="O19" s="10"/>
       <c r="P19" s="9">
-        <v>12.8</v>
+        <v>18.2</v>
       </c>
       <c r="Q19" s="9">
-        <v>23.6</v>
+        <v>27.8</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>27</v>
@@ -1987,31 +1953,29 @@
       <c r="V19" s="5">
         <v>30</v>
       </c>
-      <c r="W19" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="W19" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
-        <v>10020</v>
+        <v>10031</v>
       </c>
       <c r="B20" s="6">
-        <v>43715</v>
+        <v>43914</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -2019,17 +1983,17 @@
         <v>270</v>
       </c>
       <c r="M20" s="5">
-        <v>54</v>
-      </c>
-      <c r="N20" s="9">
-        <v>25.5</v>
+        <v>39</v>
+      </c>
+      <c r="N20" s="5">
+        <v>25</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="9">
-        <v>11.3</v>
+        <v>19.8</v>
       </c>
       <c r="Q20" s="9">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>27</v>
@@ -2050,25 +2014,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
-        <v>10021</v>
+        <v>10032</v>
       </c>
       <c r="B21" s="6">
-        <v>43715</v>
+        <v>43914</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -2076,17 +2040,17 @@
         <v>270</v>
       </c>
       <c r="M21" s="5">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N21" s="5">
         <v>25</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>20.4</v>
+        <v>18.2</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>27</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>27</v>
@@ -2107,10 +2071,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
-        <v>10022</v>
+        <v>10042</v>
       </c>
       <c r="B22" s="6">
-        <v>43715</v>
+        <v>43931</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>23</v>
@@ -2119,7 +2083,7 @@
         <v>55</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -2133,17 +2097,17 @@
         <v>270</v>
       </c>
       <c r="M22" s="5">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="N22" s="9">
-        <v>26.7</v>
+        <v>24.4</v>
       </c>
       <c r="O22" s="10"/>
-      <c r="P22" s="9">
-        <v>14.1</v>
+      <c r="P22" s="5">
+        <v>23</v>
       </c>
       <c r="Q22" s="9">
-        <v>28.4</v>
+        <v>35.2</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>27</v>
@@ -2164,10 +2128,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
-        <v>10023</v>
+        <v>10043</v>
       </c>
       <c r="B23" s="6">
-        <v>43816</v>
+        <v>43931</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>23</v>
@@ -2176,7 +2140,7 @@
         <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -2190,17 +2154,17 @@
         <v>270</v>
       </c>
       <c r="M23" s="5">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N23" s="9">
-        <v>22.4</v>
+        <v>24.4</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="9">
-        <v>21.7</v>
+        <v>35.2</v>
       </c>
       <c r="Q23" s="9">
-        <v>35.5</v>
+        <v>34.65</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>27</v>
@@ -2221,10 +2185,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
-        <v>10024</v>
+        <v>10044</v>
       </c>
       <c r="B24" s="6">
-        <v>43816</v>
+        <v>43931</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>23</v>
@@ -2233,7 +2197,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -2247,17 +2211,17 @@
         <v>270</v>
       </c>
       <c r="M24" s="5">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N24" s="9">
-        <v>21.8</v>
+        <v>23.2</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="9">
-        <v>16.5</v>
+        <v>20.1</v>
       </c>
       <c r="Q24" s="9">
-        <v>16.5</v>
+        <v>34.1</v>
       </c>
       <c r="R24" s="7" t="s">
         <v>27</v>
@@ -2278,10 +2242,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
-        <v>10029</v>
+        <v>10045</v>
       </c>
       <c r="B25" s="6">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>23</v>
@@ -2290,13 +2254,13 @@
         <v>55</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
@@ -2304,17 +2268,17 @@
         <v>270</v>
       </c>
       <c r="M25" s="5">
-        <v>38</v>
-      </c>
-      <c r="N25" s="9">
-        <v>24.4</v>
+        <v>44</v>
+      </c>
+      <c r="N25" s="5">
+        <v>22</v>
       </c>
       <c r="O25" s="10"/>
-      <c r="P25" s="9">
-        <v>18.5</v>
-      </c>
-      <c r="Q25" s="9">
-        <v>18.5</v>
+      <c r="P25" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>26</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>27</v>
@@ -2335,10 +2299,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
-        <v>10030</v>
+        <v>10046</v>
       </c>
       <c r="B26" s="6">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>23</v>
@@ -2347,13 +2311,13 @@
         <v>55</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
@@ -2361,17 +2325,17 @@
         <v>270</v>
       </c>
       <c r="M26" s="5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N26" s="5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O26" s="10"/>
-      <c r="P26" s="9">
-        <v>18.2</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>27.8</v>
+      <c r="P26" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>21</v>
       </c>
       <c r="R26" s="7" t="s">
         <v>27</v>
@@ -2392,25 +2356,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5">
-        <v>10031</v>
+        <v>10047</v>
       </c>
       <c r="B27" s="6">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2418,17 +2382,17 @@
         <v>270</v>
       </c>
       <c r="M27" s="5">
-        <v>39</v>
-      </c>
-      <c r="N27" s="5">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="N27" s="9">
+        <v>21.4</v>
       </c>
       <c r="O27" s="10"/>
       <c r="P27" s="9">
-        <v>19.8</v>
+        <v>15.3</v>
       </c>
       <c r="Q27" s="9">
-        <v>28.2</v>
+        <v>25.3</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>27</v>
@@ -2445,29 +2409,31 @@
       <c r="V27" s="5">
         <v>30</v>
       </c>
-      <c r="W27" s="8"/>
+      <c r="W27" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="5">
-        <v>10032</v>
+        <v>10048</v>
       </c>
       <c r="B28" s="6">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="7" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2475,17 +2441,17 @@
         <v>270</v>
       </c>
       <c r="M28" s="5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N28" s="5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="O28" s="10"/>
       <c r="P28" s="9">
-        <v>18.2</v>
-      </c>
-      <c r="Q28" s="5">
-        <v>27</v>
+        <v>24.2</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>36.2</v>
       </c>
       <c r="R28" s="7" t="s">
         <v>27</v>
@@ -2506,10 +2472,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="5">
-        <v>10033</v>
+        <v>10049</v>
       </c>
       <c r="B29" s="6">
-        <v>43860</v>
+        <v>43941</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>23</v>
@@ -2518,7 +2484,7 @@
         <v>55</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2532,15 +2498,17 @@
         <v>270</v>
       </c>
       <c r="M29" s="5">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="N29" s="9">
+        <v>21.4</v>
       </c>
       <c r="O29" s="10"/>
-      <c r="P29" s="11"/>
+      <c r="P29" s="9">
+        <v>13.5</v>
+      </c>
       <c r="Q29" s="9">
-        <v>27.5</v>
+        <v>21.25</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>27</v>
@@ -2561,10 +2529,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="5">
-        <v>10034</v>
+        <v>10050</v>
       </c>
       <c r="B30" s="6">
-        <v>43860</v>
+        <v>43942</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>23</v>
@@ -2573,7 +2541,7 @@
         <v>55</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -2587,17 +2555,17 @@
         <v>270</v>
       </c>
       <c r="M30" s="5">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="N30" s="9">
-        <v>23.9</v>
+        <v>21.4</v>
       </c>
       <c r="O30" s="10"/>
-      <c r="P30" s="5">
-        <v>15</v>
+      <c r="P30" s="9">
+        <v>13.6</v>
       </c>
       <c r="Q30" s="9">
-        <v>27.7</v>
+        <v>29.7</v>
       </c>
       <c r="R30" s="7" t="s">
         <v>27</v>
@@ -2618,10 +2586,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="5">
-        <v>10035</v>
+        <v>10051</v>
       </c>
       <c r="B31" s="6">
-        <v>43860</v>
+        <v>43949</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>23</v>
@@ -2630,7 +2598,7 @@
         <v>55</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -2643,16 +2611,18 @@
       <c r="L31" s="5">
         <v>270</v>
       </c>
-      <c r="M31" s="5">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5">
-        <v>0</v>
+      <c r="M31" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="N31" s="9">
+        <v>12.2</v>
       </c>
       <c r="O31" s="10"/>
-      <c r="P31" s="11"/>
+      <c r="P31" s="9">
+        <v>21.1</v>
+      </c>
       <c r="Q31" s="9">
-        <v>28.5</v>
+        <v>25.85</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>27</v>
@@ -2673,19 +2643,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="5">
-        <v>10036</v>
+        <v>10052</v>
       </c>
       <c r="B32" s="6">
-        <v>43860</v>
+        <v>43959</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -2699,17 +2669,19 @@
         <v>270</v>
       </c>
       <c r="M32" s="5">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="N32" s="9">
-        <v>23.8</v>
-      </c>
-      <c r="O32" s="10"/>
-      <c r="P32" s="9">
-        <v>15.4</v>
+        <v>27.25</v>
+      </c>
+      <c r="O32" s="5">
+        <v>187</v>
+      </c>
+      <c r="P32" s="5">
+        <v>24</v>
       </c>
       <c r="Q32" s="9">
-        <v>28.5</v>
+        <v>25.75</v>
       </c>
       <c r="R32" s="7" t="s">
         <v>27</v>
@@ -2726,14 +2698,16 @@
       <c r="V32" s="5">
         <v>30</v>
       </c>
-      <c r="W32" s="8"/>
+      <c r="W32" s="7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="5">
-        <v>10042</v>
+        <v>10055</v>
       </c>
       <c r="B33" s="6">
-        <v>43931</v>
+        <v>43971</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>23</v>
@@ -2742,13 +2716,13 @@
         <v>55</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2756,17 +2730,19 @@
         <v>270</v>
       </c>
       <c r="M33" s="5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N33" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="5">
-        <v>23</v>
+        <v>24.5</v>
+      </c>
+      <c r="O33" s="5">
+        <v>339</v>
+      </c>
+      <c r="P33" s="9">
+        <v>10.8</v>
       </c>
       <c r="Q33" s="9">
-        <v>35.2</v>
+        <v>21.3</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>27</v>
@@ -2787,25 +2763,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="5">
-        <v>10043</v>
+        <v>10056</v>
       </c>
       <c r="B34" s="6">
-        <v>43931</v>
+        <v>43971</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2813,17 +2789,19 @@
         <v>270</v>
       </c>
       <c r="M34" s="5">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N34" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="O34" s="10"/>
+        <v>24.5</v>
+      </c>
+      <c r="O34" s="5">
+        <v>352</v>
+      </c>
       <c r="P34" s="9">
-        <v>35.2</v>
+        <v>10.2</v>
       </c>
       <c r="Q34" s="9">
-        <v>34.65</v>
+        <v>21.5</v>
       </c>
       <c r="R34" s="7" t="s">
         <v>27</v>
@@ -2840,29 +2818,31 @@
       <c r="V34" s="5">
         <v>30</v>
       </c>
-      <c r="W34" s="8"/>
+      <c r="W34" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="5">
-        <v>10044</v>
+        <v>10057</v>
       </c>
       <c r="B35" s="6">
-        <v>43931</v>
+        <v>43971</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2870,17 +2850,19 @@
         <v>270</v>
       </c>
       <c r="M35" s="5">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N35" s="9">
-        <v>23.2</v>
-      </c>
-      <c r="O35" s="10"/>
+        <v>24.5</v>
+      </c>
+      <c r="O35" s="5">
+        <v>392</v>
+      </c>
       <c r="P35" s="9">
-        <v>20.1</v>
+        <v>15.2</v>
       </c>
       <c r="Q35" s="9">
-        <v>34.1</v>
+        <v>24.4</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>27</v>
@@ -2901,25 +2883,25 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="5">
-        <v>10045</v>
+        <v>10058</v>
       </c>
       <c r="B36" s="6">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2927,17 +2909,19 @@
         <v>270</v>
       </c>
       <c r="M36" s="5">
-        <v>44</v>
-      </c>
-      <c r="N36" s="5">
-        <v>22</v>
-      </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q36" s="5">
-        <v>26</v>
+        <v>43</v>
+      </c>
+      <c r="N36" s="9">
+        <v>22.7</v>
+      </c>
+      <c r="O36" s="5">
+        <v>366</v>
+      </c>
+      <c r="P36" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>24.8</v>
       </c>
       <c r="R36" s="7" t="s">
         <v>27</v>
@@ -2954,14 +2938,16 @@
       <c r="V36" s="5">
         <v>30</v>
       </c>
-      <c r="W36" s="8"/>
+      <c r="W36" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="5">
-        <v>10046</v>
+        <v>10060</v>
       </c>
       <c r="B37" s="6">
-        <v>43941</v>
+        <v>43990</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>23</v>
@@ -2970,13 +2956,13 @@
         <v>55</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="7" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
@@ -2984,17 +2970,17 @@
         <v>270</v>
       </c>
       <c r="M37" s="5">
-        <v>44</v>
-      </c>
-      <c r="N37" s="5">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="N37" s="9">
+        <v>24.3</v>
       </c>
       <c r="O37" s="10"/>
-      <c r="P37" s="5">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="5">
-        <v>21</v>
+      <c r="P37" s="9">
+        <v>30.8</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>30.8</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>27</v>
@@ -3014,979 +3000,334 @@
       <c r="W37" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="5">
-        <v>10047</v>
-      </c>
-      <c r="B38" s="6">
-        <v>43941</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="5">
-        <v>270</v>
-      </c>
-      <c r="M38" s="5">
-        <v>47</v>
-      </c>
-      <c r="N38" s="9">
-        <v>21.4</v>
-      </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="9">
-        <v>15.3</v>
-      </c>
-      <c r="Q38" s="9">
-        <v>25.3</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S38" s="5">
-        <v>45</v>
-      </c>
-      <c r="T38" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U38" s="5">
-        <v>50</v>
-      </c>
-      <c r="V38" s="5">
-        <v>30</v>
-      </c>
-      <c r="W38" s="7" t="s">
-        <v>88</v>
-      </c>
+      <c r="A38" s="11">
+        <v>30193</v>
+      </c>
+      <c r="B38" s="12">
+        <v>44616</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="15"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="11">
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S38" s="11">
+        <v>45</v>
+      </c>
+      <c r="T38" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="U38" s="11">
+        <v>50</v>
+      </c>
+      <c r="V38" s="11">
+        <v>30</v>
+      </c>
+      <c r="W38" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="5">
-        <v>10048</v>
-      </c>
-      <c r="B39" s="6">
-        <v>43941</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="5">
-        <v>270</v>
-      </c>
-      <c r="M39" s="5">
-        <v>44</v>
-      </c>
-      <c r="N39" s="5">
-        <v>22</v>
-      </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="9">
-        <v>24.2</v>
-      </c>
-      <c r="Q39" s="9">
-        <v>36.2</v>
-      </c>
-      <c r="R39" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S39" s="5">
-        <v>45</v>
-      </c>
-      <c r="T39" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U39" s="5">
-        <v>50</v>
-      </c>
-      <c r="V39" s="5">
-        <v>30</v>
-      </c>
-      <c r="W39" s="8"/>
+      <c r="A39" s="11">
+        <v>30194</v>
+      </c>
+      <c r="B39" s="12">
+        <v>44616</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="11">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="11">
+        <v>0</v>
+      </c>
+      <c r="P39" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S39" s="11">
+        <v>45</v>
+      </c>
+      <c r="T39" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="U39" s="11">
+        <v>50</v>
+      </c>
+      <c r="V39" s="11">
+        <v>30</v>
+      </c>
+      <c r="W39" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="5">
-        <v>10049</v>
-      </c>
-      <c r="B40" s="6">
-        <v>43941</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="A40" s="11">
+        <v>30195</v>
+      </c>
+      <c r="B40" s="12">
+        <v>44616</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="5">
-        <v>270</v>
-      </c>
-      <c r="M40" s="5">
-        <v>47</v>
-      </c>
-      <c r="N40" s="9">
-        <v>21.4</v>
-      </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="9">
-        <v>13.5</v>
-      </c>
-      <c r="Q40" s="9">
-        <v>21.25</v>
-      </c>
-      <c r="R40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S40" s="5">
-        <v>45</v>
-      </c>
-      <c r="T40" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U40" s="5">
-        <v>50</v>
-      </c>
-      <c r="V40" s="5">
-        <v>30</v>
-      </c>
-      <c r="W40" s="8"/>
+      <c r="E40" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="15"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S40" s="11">
+        <v>45</v>
+      </c>
+      <c r="T40" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="U40" s="11">
+        <v>50</v>
+      </c>
+      <c r="V40" s="11">
+        <v>30</v>
+      </c>
+      <c r="W40" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="5">
-        <v>10050</v>
-      </c>
-      <c r="B41" s="6">
-        <v>43942</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="7" t="s">
+      <c r="A41" s="11">
+        <v>30196</v>
+      </c>
+      <c r="B41" s="12">
+        <v>44616</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="5">
-        <v>270</v>
-      </c>
-      <c r="M41" s="5">
-        <v>47</v>
-      </c>
-      <c r="N41" s="9">
-        <v>21.4</v>
-      </c>
-      <c r="O41" s="10"/>
-      <c r="P41" s="9">
-        <v>13.6</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>29.7</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S41" s="5">
-        <v>45</v>
-      </c>
-      <c r="T41" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U41" s="5">
-        <v>50</v>
-      </c>
-      <c r="V41" s="5">
-        <v>30</v>
-      </c>
-      <c r="W41" s="8"/>
+      <c r="E41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="11">
+        <v>0</v>
+      </c>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="11">
+        <v>0</v>
+      </c>
+      <c r="P41" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>0</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S41" s="11">
+        <v>45</v>
+      </c>
+      <c r="T41" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="U41" s="11">
+        <v>50</v>
+      </c>
+      <c r="V41" s="11">
+        <v>30</v>
+      </c>
+      <c r="W41" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="5">
-        <v>10051</v>
-      </c>
-      <c r="B42" s="6">
-        <v>43949</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="7" t="s">
+      <c r="A42" s="11">
+        <v>30197</v>
+      </c>
+      <c r="B42" s="12">
+        <v>44616</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="5">
-        <v>270</v>
-      </c>
-      <c r="M42" s="9">
-        <v>19.5</v>
-      </c>
-      <c r="N42" s="9">
-        <v>12.2</v>
-      </c>
-      <c r="O42" s="10"/>
-      <c r="P42" s="9">
-        <v>21.1</v>
-      </c>
-      <c r="Q42" s="9">
-        <v>25.85</v>
-      </c>
-      <c r="R42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S42" s="5">
-        <v>45</v>
-      </c>
-      <c r="T42" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U42" s="5">
-        <v>50</v>
-      </c>
-      <c r="V42" s="5">
-        <v>30</v>
-      </c>
-      <c r="W42" s="8"/>
+      <c r="E42" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="11">
+        <v>0</v>
+      </c>
+      <c r="P42" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="S42" s="11">
+        <v>45</v>
+      </c>
+      <c r="T42" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="U42" s="11">
+        <v>50</v>
+      </c>
+      <c r="V42" s="11">
+        <v>30</v>
+      </c>
+      <c r="W42" s="14"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="5">
-        <v>10052</v>
-      </c>
-      <c r="B43" s="6">
-        <v>43959</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="A43" s="11">
+        <v>30198</v>
+      </c>
+      <c r="B43" s="12">
+        <v>44616</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="5">
-        <v>270</v>
-      </c>
-      <c r="M43" s="5">
-        <v>60</v>
-      </c>
-      <c r="N43" s="9">
-        <v>27.25</v>
-      </c>
-      <c r="O43" s="5">
-        <v>187</v>
-      </c>
-      <c r="P43" s="5">
-        <v>24</v>
-      </c>
-      <c r="Q43" s="9">
-        <v>25.75</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S43" s="5">
-        <v>45</v>
-      </c>
-      <c r="T43" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U43" s="5">
-        <v>50</v>
-      </c>
-      <c r="V43" s="5">
-        <v>30</v>
-      </c>
-      <c r="W43" s="7" t="s">
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="11">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="11">
+        <v>0</v>
+      </c>
+      <c r="P43" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>0</v>
+      </c>
+      <c r="R43" s="13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="5">
-        <v>10055</v>
-      </c>
-      <c r="B44" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="5">
-        <v>270</v>
-      </c>
-      <c r="M44" s="5">
-        <v>44</v>
-      </c>
-      <c r="N44" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="O44" s="5">
-        <v>339</v>
-      </c>
-      <c r="P44" s="9">
-        <v>10.8</v>
-      </c>
-      <c r="Q44" s="9">
-        <v>21.3</v>
-      </c>
-      <c r="R44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S44" s="5">
-        <v>45</v>
-      </c>
-      <c r="T44" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U44" s="5">
-        <v>50</v>
-      </c>
-      <c r="V44" s="5">
-        <v>30</v>
-      </c>
-      <c r="W44" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="5">
-        <v>10056</v>
-      </c>
-      <c r="B45" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="5">
-        <v>270</v>
-      </c>
-      <c r="M45" s="5">
-        <v>44</v>
-      </c>
-      <c r="N45" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="O45" s="5">
-        <v>352</v>
-      </c>
-      <c r="P45" s="9">
-        <v>10.2</v>
-      </c>
-      <c r="Q45" s="9">
-        <v>21.5</v>
-      </c>
-      <c r="R45" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S45" s="5">
-        <v>45</v>
-      </c>
-      <c r="T45" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U45" s="5">
-        <v>50</v>
-      </c>
-      <c r="V45" s="5">
-        <v>30</v>
-      </c>
-      <c r="W45" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="5">
-        <v>10057</v>
-      </c>
-      <c r="B46" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="5">
-        <v>270</v>
-      </c>
-      <c r="M46" s="5">
-        <v>44</v>
-      </c>
-      <c r="N46" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="O46" s="5">
-        <v>392</v>
-      </c>
-      <c r="P46" s="9">
-        <v>15.2</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="R46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S46" s="5">
-        <v>45</v>
-      </c>
-      <c r="T46" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U46" s="5">
-        <v>50</v>
-      </c>
-      <c r="V46" s="5">
-        <v>30</v>
-      </c>
-      <c r="W46" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="5">
-        <v>10058</v>
-      </c>
-      <c r="B47" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="5">
-        <v>270</v>
-      </c>
-      <c r="M47" s="5">
-        <v>43</v>
-      </c>
-      <c r="N47" s="9">
-        <v>22.7</v>
-      </c>
-      <c r="O47" s="5">
-        <v>366</v>
-      </c>
-      <c r="P47" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>24.8</v>
-      </c>
-      <c r="R47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S47" s="5">
-        <v>45</v>
-      </c>
-      <c r="T47" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U47" s="5">
-        <v>50</v>
-      </c>
-      <c r="V47" s="5">
-        <v>30</v>
-      </c>
-      <c r="W47" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="5">
-        <v>10060</v>
-      </c>
-      <c r="B48" s="6">
-        <v>43990</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="5">
-        <v>270</v>
-      </c>
-      <c r="M48" s="5">
-        <v>45</v>
-      </c>
-      <c r="N48" s="9">
-        <v>24.3</v>
-      </c>
-      <c r="O48" s="10"/>
-      <c r="P48" s="9">
-        <v>30.8</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>30.8</v>
-      </c>
-      <c r="R48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S48" s="5">
-        <v>45</v>
-      </c>
-      <c r="T48" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U48" s="5">
-        <v>50</v>
-      </c>
-      <c r="V48" s="5">
-        <v>30</v>
-      </c>
-      <c r="W48" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="12">
-        <v>30193</v>
-      </c>
-      <c r="B49" s="13">
-        <v>44616</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="12">
-        <v>0</v>
-      </c>
-      <c r="M49" s="16"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="12">
-        <v>0</v>
-      </c>
-      <c r="P49" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q49" s="12">
-        <v>0</v>
-      </c>
-      <c r="R49" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S49" s="12">
-        <v>45</v>
-      </c>
-      <c r="T49" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="U49" s="12">
-        <v>50</v>
-      </c>
-      <c r="V49" s="12">
-        <v>30</v>
-      </c>
-      <c r="W49" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="12">
-        <v>30194</v>
-      </c>
-      <c r="B50" s="13">
-        <v>44616</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="12">
-        <v>0</v>
-      </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="12">
-        <v>0</v>
-      </c>
-      <c r="P50" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q50" s="12">
-        <v>0</v>
-      </c>
-      <c r="R50" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S50" s="12">
-        <v>45</v>
-      </c>
-      <c r="T50" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="U50" s="12">
-        <v>50</v>
-      </c>
-      <c r="V50" s="12">
-        <v>30</v>
-      </c>
-      <c r="W50" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="12">
-        <v>30195</v>
-      </c>
-      <c r="B51" s="13">
-        <v>44616</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J51" s="15"/>
-      <c r="K51" s="15"/>
-      <c r="L51" s="12">
-        <v>0</v>
-      </c>
-      <c r="M51" s="16"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="12">
-        <v>0</v>
-      </c>
-      <c r="P51" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q51" s="12">
-        <v>0</v>
-      </c>
-      <c r="R51" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S51" s="12">
-        <v>45</v>
-      </c>
-      <c r="T51" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="U51" s="12">
-        <v>50</v>
-      </c>
-      <c r="V51" s="12">
-        <v>30</v>
-      </c>
-      <c r="W51" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="12">
-        <v>30196</v>
-      </c>
-      <c r="B52" s="13">
-        <v>44616</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="12">
-        <v>0</v>
-      </c>
-      <c r="M52" s="16"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="12">
-        <v>0</v>
-      </c>
-      <c r="P52" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q52" s="12">
-        <v>0</v>
-      </c>
-      <c r="R52" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S52" s="12">
-        <v>45</v>
-      </c>
-      <c r="T52" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="U52" s="12">
-        <v>50</v>
-      </c>
-      <c r="V52" s="12">
-        <v>30</v>
-      </c>
-      <c r="W52" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="12">
-        <v>30197</v>
-      </c>
-      <c r="B53" s="13">
-        <v>44616</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="12">
-        <v>0</v>
-      </c>
-      <c r="M53" s="16"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="12">
-        <v>0</v>
-      </c>
-      <c r="P53" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q53" s="12">
-        <v>0</v>
-      </c>
-      <c r="R53" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S53" s="12">
-        <v>45</v>
-      </c>
-      <c r="T53" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="U53" s="12">
-        <v>50</v>
-      </c>
-      <c r="V53" s="12">
-        <v>30</v>
-      </c>
-      <c r="W53" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="12">
-        <v>30198</v>
-      </c>
-      <c r="B54" s="13">
-        <v>44616</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E54" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="12">
-        <v>0</v>
-      </c>
-      <c r="M54" s="16"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="12">
-        <v>0</v>
-      </c>
-      <c r="P54" s="12">
-        <v>20</v>
-      </c>
-      <c r="Q54" s="12">
-        <v>0</v>
-      </c>
-      <c r="R54" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="S54" s="12">
-        <v>45</v>
-      </c>
-      <c r="T54" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="U54" s="12">
-        <v>50</v>
-      </c>
-      <c r="V54" s="12">
-        <v>30</v>
-      </c>
-      <c r="W54" s="15"/>
+      <c r="S43" s="11">
+        <v>45</v>
+      </c>
+      <c r="T43" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="U43" s="11">
+        <v>50</v>
+      </c>
+      <c r="V43" s="11">
+        <v>30</v>
+      </c>
+      <c r="W43" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1. IMPACT TEST/Mechanical Test DB - Impact.xlsx
+++ b/1. IMPACT TEST/Mechanical Test DB - Impact.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="87">
   <si>
     <t>shoe_num</t>
   </si>
@@ -163,45 +163,24 @@
     <t>VOLCANO</t>
   </si>
   <si>
+    <t>MIZUNO</t>
+  </si>
+  <si>
+    <t>WAVE EMPEROR</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wQ0oAz4CUok</t>
+  </si>
+  <si>
+    <t>FILA</t>
+  </si>
+  <si>
+    <t>TRAIL</t>
+  </si>
+  <si>
     <t>ASICS</t>
   </si>
   <si>
-    <t>KAYANO 25</t>
-  </si>
-  <si>
-    <t>https://runrepeat.com/asics-gel-kayano-25</t>
-  </si>
-  <si>
-    <t>MIZUNO</t>
-  </si>
-  <si>
-    <t>WAVE EMPEROR</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wQ0oAz4CUok</t>
-  </si>
-  <si>
-    <t>FILA</t>
-  </si>
-  <si>
-    <t>TRAIL</t>
-  </si>
-  <si>
-    <t>ZOOM PEGASUS TURBO</t>
-  </si>
-  <si>
-    <t>https://runrepeat.com/nike-zoom-pegasus-turbo</t>
-  </si>
-  <si>
-    <t>RGB FLOW</t>
-  </si>
-  <si>
-    <t>ZOOM FLY FLIGHT KNIT</t>
-  </si>
-  <si>
-    <t>https://runrepeat.com/nike-zoom-fly-flyknit</t>
-  </si>
-  <si>
     <t>TARTHER JAPAN</t>
   </si>
   <si>
@@ -214,9 +193,6 @@
     <t>MIDSOLEPART</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
     <t>DASS</t>
   </si>
   <si>
@@ -226,34 +202,22 @@
     <t>D2</t>
   </si>
   <si>
-    <t>FLOAT FIT</t>
+    <t>PROTOTYPE 50-55</t>
+  </si>
+  <si>
+    <t>BASKETBALL</t>
+  </si>
+  <si>
+    <t>PROTOTYPE 60-66</t>
+  </si>
+  <si>
+    <t>CURRY4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rEGHtpnrGV8</t>
   </si>
   <si>
     <t>FLOAT FLY</t>
-  </si>
-  <si>
-    <t>SILVA NOPEBAX</t>
-  </si>
-  <si>
-    <t>PROTOTYPE 50-55</t>
-  </si>
-  <si>
-    <t>BASKETBALL</t>
-  </si>
-  <si>
-    <t>PROTOTYPE 60-66</t>
-  </si>
-  <si>
-    <t>CURRY4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rEGHtpnrGV8</t>
-  </si>
-  <si>
-    <t>WAVELET ALPHA</t>
-  </si>
-  <si>
-    <t>JY CUSHION FINAL</t>
   </si>
   <si>
     <t>BUBBLE RUN</t>
@@ -318,7 +282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,12 +293,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -391,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -414,13 +372,7 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
@@ -431,15 +383,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -452,9 +395,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -474,8 +414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W43" displayName="표1" name="표1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:W43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W33" displayName="표1" name="표1" id="1" totalsRowShown="0">
+  <autoFilter ref="A1:W33"/>
   <tableColumns count="23">
     <tableColumn name="shoe_num" id="1"/>
     <tableColumn name="test_date" id="2"/>
@@ -793,35 +733,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:W43"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="20" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="20" width="38.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="21" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="21" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="21" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="20" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="21" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="18" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="22" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="20" width="15.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="22" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="17.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="21" width="95.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="15" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="13" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="13" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="16" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="13" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="13" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="13" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="15" width="15.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="13" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="16" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="13" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="13" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="15" width="95.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -911,30 +851,30 @@
       <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="5">
         <v>270</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>45.5</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8">
         <v>25.45</v>
       </c>
       <c r="O2" s="5">
         <v>305</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>17.65</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="8">
         <v>31.55</v>
       </c>
       <c r="R2" s="7" t="s">
@@ -943,7 +883,7 @@
       <c r="S2" s="5">
         <v>45</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <v>8.5</v>
       </c>
       <c r="U2" s="5">
@@ -972,30 +912,30 @@
       <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="5">
         <v>270</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>50.5</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>25.65</v>
       </c>
       <c r="O3" s="5">
         <v>325</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="8">
         <v>16.45</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="8">
         <v>30.1</v>
       </c>
       <c r="R3" s="7" t="s">
@@ -1004,7 +944,7 @@
       <c r="S3" s="5">
         <v>45</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <v>8.5</v>
       </c>
       <c r="U3" s="5">
@@ -1033,30 +973,30 @@
       <c r="E4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="5">
         <v>270</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="8">
         <v>35.5</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="8">
         <v>22.75</v>
       </c>
       <c r="O4" s="5">
         <v>239</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>17.3</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>26.55</v>
       </c>
       <c r="R4" s="7" t="s">
@@ -1065,7 +1005,7 @@
       <c r="S4" s="5">
         <v>45</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <v>8.5</v>
       </c>
       <c r="U4" s="5">
@@ -1094,28 +1034,28 @@
       <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="5">
         <v>270</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>41.5</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>23.2</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="9">
+      <c r="O5" s="8"/>
+      <c r="P5" s="8">
         <v>14.3</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="8">
         <v>24.95</v>
       </c>
       <c r="R5" s="7" t="s">
@@ -1124,7 +1064,7 @@
       <c r="S5" s="5">
         <v>45</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <v>8.5</v>
       </c>
       <c r="U5" s="5">
@@ -1133,7 +1073,7 @@
       <c r="V5" s="5">
         <v>30</v>
       </c>
-      <c r="W5" s="8"/>
+      <c r="W5" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
@@ -1151,21 +1091,21 @@
       <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="5">
         <v>270</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>38.83333333</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>22.33333333</v>
       </c>
       <c r="O6" s="5">
@@ -1174,7 +1114,7 @@
       <c r="P6" s="5">
         <v>16</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>28.4</v>
       </c>
       <c r="R6" s="7" t="s">
@@ -1183,7 +1123,7 @@
       <c r="S6" s="5">
         <v>45</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="8">
         <v>8.5</v>
       </c>
       <c r="U6" s="5">
@@ -1212,28 +1152,28 @@
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="5">
         <v>270</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>41.5</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>22.95</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="9">
+      <c r="O7" s="8"/>
+      <c r="P7" s="8">
         <v>12.8</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>28.05</v>
       </c>
       <c r="R7" s="7" t="s">
@@ -1242,7 +1182,7 @@
       <c r="S7" s="5">
         <v>45</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="8">
         <v>8.5</v>
       </c>
       <c r="U7" s="5">
@@ -1251,7 +1191,7 @@
       <c r="V7" s="5">
         <v>30</v>
       </c>
-      <c r="W7" s="8"/>
+      <c r="W7" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
@@ -1269,28 +1209,28 @@
       <c r="E8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="5">
         <v>270</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="8">
         <v>41.5</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>22.9</v>
       </c>
-      <c r="O8" s="10"/>
-      <c r="P8" s="9">
+      <c r="O8" s="8"/>
+      <c r="P8" s="8">
         <v>16.8</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="8">
         <v>30.85</v>
       </c>
       <c r="R8" s="7" t="s">
@@ -1299,7 +1239,7 @@
       <c r="S8" s="5">
         <v>45</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="8">
         <v>8.5</v>
       </c>
       <c r="U8" s="5">
@@ -1308,7 +1248,7 @@
       <c r="V8" s="5">
         <v>30</v>
       </c>
-      <c r="W8" s="8"/>
+      <c r="W8" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
@@ -1326,28 +1266,28 @@
       <c r="E9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="5">
         <v>270</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <v>48.5</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>25.45</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="9">
+      <c r="O9" s="8"/>
+      <c r="P9" s="8">
         <v>15.9</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>28.6</v>
       </c>
       <c r="R9" s="7" t="s">
@@ -1356,7 +1296,7 @@
       <c r="S9" s="5">
         <v>45</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <v>8.5</v>
       </c>
       <c r="U9" s="5">
@@ -1365,7 +1305,7 @@
       <c r="V9" s="5">
         <v>30</v>
       </c>
-      <c r="W9" s="8"/>
+      <c r="W9" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
@@ -1383,25 +1323,25 @@
       <c r="E10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="5">
         <v>270</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>48.5</v>
       </c>
       <c r="N10" s="5">
         <v>26</v>
       </c>
-      <c r="O10" s="10"/>
-      <c r="P10" s="9">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8">
         <v>20.7</v>
       </c>
       <c r="Q10" s="5">
@@ -1413,7 +1353,7 @@
       <c r="S10" s="5">
         <v>45</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="8">
         <v>8.5</v>
       </c>
       <c r="U10" s="5">
@@ -1422,14 +1362,14 @@
       <c r="V10" s="5">
         <v>30</v>
       </c>
-      <c r="W10" s="8"/>
+      <c r="W10" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="B11" s="6">
-        <v>43556</v>
+        <v>43605</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>23</v>
@@ -1440,31 +1380,29 @@
       <c r="E11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="5">
         <v>270</v>
       </c>
       <c r="M11" s="5">
-        <v>51</v>
-      </c>
-      <c r="N11" s="9">
-        <v>26.45</v>
-      </c>
-      <c r="O11" s="5">
-        <v>336</v>
-      </c>
-      <c r="P11" s="9">
-        <v>18.3</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>28.45</v>
+        <v>52</v>
+      </c>
+      <c r="N11" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8">
+        <v>10.4</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>18.7</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>27</v>
@@ -1472,7 +1410,7 @@
       <c r="S11" s="5">
         <v>45</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="8">
         <v>8.5</v>
       </c>
       <c r="U11" s="5">
@@ -1487,7 +1425,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="B12" s="6">
         <v>43605</v>
@@ -1501,29 +1439,29 @@
       <c r="E12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="5">
         <v>270</v>
       </c>
       <c r="M12" s="5">
-        <v>52</v>
-      </c>
-      <c r="N12" s="9">
-        <v>25.4</v>
-      </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>18.7</v>
+        <v>49</v>
+      </c>
+      <c r="N12" s="8">
+        <v>25.7</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>28.3</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>27</v>
@@ -1531,7 +1469,7 @@
       <c r="S12" s="5">
         <v>45</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <v>8.5</v>
       </c>
       <c r="U12" s="5">
@@ -1540,49 +1478,49 @@
       <c r="V12" s="5">
         <v>30</v>
       </c>
-      <c r="W12" s="7" t="s">
-        <v>54</v>
-      </c>
+      <c r="W12" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
-        <v>10013</v>
+        <v>10019</v>
       </c>
       <c r="B13" s="6">
-        <v>43605</v>
+        <v>43626</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="5">
         <v>270</v>
       </c>
       <c r="M13" s="5">
-        <v>49</v>
-      </c>
-      <c r="N13" s="9">
-        <v>25.7</v>
-      </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="9">
-        <v>17.2</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>28.3</v>
+        <v>25</v>
+      </c>
+      <c r="N13" s="5">
+        <v>25</v>
+      </c>
+      <c r="O13" s="5">
+        <v>214</v>
+      </c>
+      <c r="P13" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>23.6</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>27</v>
@@ -1590,7 +1528,7 @@
       <c r="S13" s="5">
         <v>45</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="8">
         <v>8.5</v>
       </c>
       <c r="U13" s="5">
@@ -1599,49 +1537,49 @@
       <c r="V13" s="5">
         <v>30</v>
       </c>
-      <c r="W13" s="8"/>
+      <c r="W13" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
-        <v>10014</v>
+        <v>10029</v>
       </c>
       <c r="B14" s="6">
-        <v>43605</v>
+        <v>43914</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="5">
         <v>270</v>
       </c>
       <c r="M14" s="5">
-        <v>50</v>
-      </c>
-      <c r="N14" s="9">
-        <v>26.6</v>
-      </c>
-      <c r="O14" s="5">
-        <v>283</v>
-      </c>
-      <c r="P14" s="9">
-        <v>15.6</v>
-      </c>
-      <c r="Q14" s="9">
-        <v>24.1</v>
+        <v>38</v>
+      </c>
+      <c r="N14" s="8">
+        <v>24.4</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8">
+        <v>18.5</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>18.5</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>27</v>
@@ -1649,7 +1587,7 @@
       <c r="S14" s="5">
         <v>45</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <v>8.5</v>
       </c>
       <c r="U14" s="5">
@@ -1658,49 +1596,47 @@
       <c r="V14" s="5">
         <v>30</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="W14" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="5">
+        <v>10031</v>
+      </c>
+      <c r="B15" s="6">
+        <v>43914</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5">
-        <v>10016</v>
-      </c>
-      <c r="B15" s="6">
-        <v>43626</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="5">
         <v>270</v>
       </c>
-      <c r="M15" s="9">
-        <v>53.83333333</v>
-      </c>
-      <c r="N15" s="9">
-        <v>26.35</v>
-      </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="9">
-        <v>14.4</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>26.28333333</v>
+      <c r="M15" s="5">
+        <v>39</v>
+      </c>
+      <c r="N15" s="5">
+        <v>25</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8">
+        <v>19.8</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>28.2</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>27</v>
@@ -1708,7 +1644,7 @@
       <c r="S15" s="5">
         <v>45</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <v>8.5</v>
       </c>
       <c r="U15" s="5">
@@ -1717,49 +1653,47 @@
       <c r="V15" s="5">
         <v>30</v>
       </c>
-      <c r="W15" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="W15" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="5">
-        <v>10018</v>
+        <v>10032</v>
       </c>
       <c r="B16" s="6">
-        <v>43626</v>
+        <v>43914</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="5">
         <v>270</v>
       </c>
-      <c r="M16" s="9">
-        <v>52.5</v>
+      <c r="M16" s="5">
+        <v>39</v>
       </c>
       <c r="N16" s="5">
         <v>25</v>
       </c>
-      <c r="O16" s="5">
-        <v>238</v>
-      </c>
-      <c r="P16" s="9">
-        <v>24.2</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>33.55</v>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8">
+        <v>18.2</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>27</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>27</v>
@@ -1767,7 +1701,7 @@
       <c r="S16" s="5">
         <v>45</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <v>8.5</v>
       </c>
       <c r="U16" s="5">
@@ -1776,51 +1710,47 @@
       <c r="V16" s="5">
         <v>30</v>
       </c>
-      <c r="W16" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="W16" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="5">
-        <v>10019</v>
+        <v>10045</v>
       </c>
       <c r="B17" s="6">
-        <v>43626</v>
+        <v>43941</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
       <c r="I17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="5">
         <v>270</v>
       </c>
       <c r="M17" s="5">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N17" s="5">
-        <v>25</v>
-      </c>
-      <c r="O17" s="5">
-        <v>214</v>
-      </c>
-      <c r="P17" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="Q17" s="9">
-        <v>23.6</v>
+        <v>22</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="5">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>26</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>27</v>
@@ -1828,7 +1758,7 @@
       <c r="S17" s="5">
         <v>45</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="8">
         <v>8.5</v>
       </c>
       <c r="U17" s="5">
@@ -1837,49 +1767,47 @@
       <c r="V17" s="5">
         <v>30</v>
       </c>
-      <c r="W17" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="W17" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="5">
-        <v>10029</v>
+        <v>10046</v>
       </c>
       <c r="B18" s="6">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
       <c r="I18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="5">
         <v>270</v>
       </c>
       <c r="M18" s="5">
-        <v>38</v>
-      </c>
-      <c r="N18" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="O18" s="10"/>
-      <c r="P18" s="9">
-        <v>18.5</v>
-      </c>
-      <c r="Q18" s="9">
-        <v>18.5</v>
+        <v>44</v>
+      </c>
+      <c r="N18" s="5">
+        <v>22</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c r="P18" s="5">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>21</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>27</v>
@@ -1887,7 +1815,7 @@
       <c r="S18" s="5">
         <v>45</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <v>8.5</v>
       </c>
       <c r="U18" s="5">
@@ -1896,47 +1824,47 @@
       <c r="V18" s="5">
         <v>30</v>
       </c>
-      <c r="W18" s="8"/>
+      <c r="W18" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="5">
-        <v>10030</v>
+        <v>10047</v>
       </c>
       <c r="B19" s="6">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+        <v>63</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="5">
         <v>270</v>
       </c>
       <c r="M19" s="5">
-        <v>39</v>
-      </c>
-      <c r="N19" s="5">
-        <v>25</v>
-      </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="9">
-        <v>18.2</v>
-      </c>
-      <c r="Q19" s="9">
-        <v>27.8</v>
+        <v>47</v>
+      </c>
+      <c r="N19" s="8">
+        <v>21.4</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>25.3</v>
       </c>
       <c r="R19" s="7" t="s">
         <v>27</v>
@@ -1944,7 +1872,7 @@
       <c r="S19" s="5">
         <v>45</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <v>8.5</v>
       </c>
       <c r="U19" s="5">
@@ -1953,47 +1881,49 @@
       <c r="V19" s="5">
         <v>30</v>
       </c>
-      <c r="W19" s="8"/>
+      <c r="W19" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="5">
-        <v>10031</v>
+        <v>10048</v>
       </c>
       <c r="B20" s="6">
-        <v>43914</v>
+        <v>43941</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="5">
         <v>270</v>
       </c>
       <c r="M20" s="5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N20" s="5">
-        <v>25</v>
-      </c>
-      <c r="O20" s="10"/>
-      <c r="P20" s="9">
-        <v>19.8</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>28.2</v>
+        <v>22</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8">
+        <v>24.2</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>36.2</v>
       </c>
       <c r="R20" s="7" t="s">
         <v>27</v>
@@ -2001,7 +1931,7 @@
       <c r="S20" s="5">
         <v>45</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <v>8.5</v>
       </c>
       <c r="U20" s="5">
@@ -2010,47 +1940,47 @@
       <c r="V20" s="5">
         <v>30</v>
       </c>
-      <c r="W20" s="8"/>
+      <c r="W20" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="5">
-        <v>10032</v>
+        <v>10051</v>
       </c>
       <c r="B21" s="6">
-        <v>43914</v>
+        <v>43949</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="5">
         <v>270</v>
       </c>
-      <c r="M21" s="5">
-        <v>39</v>
-      </c>
-      <c r="N21" s="5">
-        <v>25</v>
-      </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="9">
-        <v>18.2</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>27</v>
+      <c r="M21" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="N21" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8">
+        <v>21.1</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>25.85</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>27</v>
@@ -2058,7 +1988,7 @@
       <c r="S21" s="5">
         <v>45</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <v>8.5</v>
       </c>
       <c r="U21" s="5">
@@ -2067,47 +1997,49 @@
       <c r="V21" s="5">
         <v>30</v>
       </c>
-      <c r="W21" s="8"/>
+      <c r="W21" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="5">
-        <v>10042</v>
+        <v>10052</v>
       </c>
       <c r="B22" s="6">
-        <v>43931</v>
+        <v>43959</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+        <v>69</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="5">
         <v>270</v>
       </c>
       <c r="M22" s="5">
-        <v>36</v>
-      </c>
-      <c r="N22" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="O22" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="N22" s="8">
+        <v>27.25</v>
+      </c>
+      <c r="O22" s="5">
+        <v>187</v>
+      </c>
       <c r="P22" s="5">
-        <v>23</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>35.2</v>
+        <v>24</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>25.75</v>
       </c>
       <c r="R22" s="7" t="s">
         <v>27</v>
@@ -2115,7 +2047,7 @@
       <c r="S22" s="5">
         <v>45</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <v>8.5</v>
       </c>
       <c r="U22" s="5">
@@ -2124,47 +2056,51 @@
       <c r="V22" s="5">
         <v>30</v>
       </c>
-      <c r="W22" s="8"/>
+      <c r="W22" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="5">
-        <v>10043</v>
+        <v>10055</v>
       </c>
       <c r="B23" s="6">
-        <v>43931</v>
+        <v>43971</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="5">
         <v>270</v>
       </c>
       <c r="M23" s="5">
-        <v>36</v>
-      </c>
-      <c r="N23" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="9">
-        <v>35.2</v>
-      </c>
-      <c r="Q23" s="9">
-        <v>34.65</v>
+        <v>44</v>
+      </c>
+      <c r="N23" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="O23" s="5">
+        <v>339</v>
+      </c>
+      <c r="P23" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>21.3</v>
       </c>
       <c r="R23" s="7" t="s">
         <v>27</v>
@@ -2172,7 +2108,7 @@
       <c r="S23" s="5">
         <v>45</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <v>8.5</v>
       </c>
       <c r="U23" s="5">
@@ -2181,47 +2117,49 @@
       <c r="V23" s="5">
         <v>30</v>
       </c>
-      <c r="W23" s="8"/>
+      <c r="W23" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="5">
-        <v>10044</v>
+        <v>10056</v>
       </c>
       <c r="B24" s="6">
-        <v>43931</v>
+        <v>43971</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="5">
         <v>270</v>
       </c>
       <c r="M24" s="5">
-        <v>40</v>
-      </c>
-      <c r="N24" s="9">
-        <v>23.2</v>
-      </c>
-      <c r="O24" s="10"/>
-      <c r="P24" s="9">
-        <v>20.1</v>
-      </c>
-      <c r="Q24" s="9">
-        <v>34.1</v>
+        <v>44</v>
+      </c>
+      <c r="N24" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="O24" s="5">
+        <v>352</v>
+      </c>
+      <c r="P24" s="8">
+        <v>10.2</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>21.5</v>
       </c>
       <c r="R24" s="7" t="s">
         <v>27</v>
@@ -2229,7 +2167,7 @@
       <c r="S24" s="5">
         <v>45</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <v>8.5</v>
       </c>
       <c r="U24" s="5">
@@ -2238,47 +2176,51 @@
       <c r="V24" s="5">
         <v>30</v>
       </c>
-      <c r="W24" s="8"/>
+      <c r="W24" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="5">
-        <v>10045</v>
+        <v>10057</v>
       </c>
       <c r="B25" s="6">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+        <v>75</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
       <c r="I25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="5">
         <v>270</v>
       </c>
       <c r="M25" s="5">
         <v>44</v>
       </c>
-      <c r="N25" s="5">
-        <v>22</v>
-      </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="5">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>26</v>
+      <c r="N25" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="O25" s="5">
+        <v>392</v>
+      </c>
+      <c r="P25" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>24.4</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>27</v>
@@ -2286,7 +2228,7 @@
       <c r="S25" s="5">
         <v>45</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="8">
         <v>8.5</v>
       </c>
       <c r="U25" s="5">
@@ -2295,47 +2237,49 @@
       <c r="V25" s="5">
         <v>30</v>
       </c>
-      <c r="W25" s="8"/>
+      <c r="W25" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="5">
-        <v>10046</v>
+        <v>10058</v>
       </c>
       <c r="B26" s="6">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="5">
         <v>270</v>
       </c>
       <c r="M26" s="5">
-        <v>44</v>
-      </c>
-      <c r="N26" s="5">
-        <v>22</v>
-      </c>
-      <c r="O26" s="10"/>
-      <c r="P26" s="5">
-        <v>21</v>
-      </c>
-      <c r="Q26" s="5">
-        <v>21</v>
+        <v>43</v>
+      </c>
+      <c r="N26" s="8">
+        <v>22.7</v>
+      </c>
+      <c r="O26" s="5">
+        <v>366</v>
+      </c>
+      <c r="P26" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>24.8</v>
       </c>
       <c r="R26" s="7" t="s">
         <v>27</v>
@@ -2343,7 +2287,7 @@
       <c r="S26" s="5">
         <v>45</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="8">
         <v>8.5</v>
       </c>
       <c r="U26" s="5">
@@ -2352,47 +2296,49 @@
       <c r="V26" s="5">
         <v>30</v>
       </c>
-      <c r="W26" s="8"/>
+      <c r="W26" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="5">
-        <v>10047</v>
+        <v>10060</v>
       </c>
       <c r="B27" s="6">
-        <v>43941</v>
+        <v>43990</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
+        <v>78</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
       <c r="I27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
+        <v>58</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="5">
         <v>270</v>
       </c>
       <c r="M27" s="5">
-        <v>47</v>
-      </c>
-      <c r="N27" s="9">
-        <v>21.4</v>
-      </c>
-      <c r="O27" s="10"/>
-      <c r="P27" s="9">
-        <v>15.3</v>
-      </c>
-      <c r="Q27" s="9">
-        <v>25.3</v>
+        <v>45</v>
+      </c>
+      <c r="N27" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8">
+        <v>30.8</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>30.8</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>27</v>
@@ -2400,7 +2346,7 @@
       <c r="S27" s="5">
         <v>45</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <v>8.5</v>
       </c>
       <c r="U27" s="5">
@@ -2409,925 +2355,337 @@
       <c r="V27" s="5">
         <v>30</v>
       </c>
-      <c r="W27" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="W27" s="7"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="5">
-        <v>10048</v>
-      </c>
-      <c r="B28" s="6">
-        <v>43941</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="5">
-        <v>270</v>
-      </c>
-      <c r="M28" s="5">
-        <v>44</v>
-      </c>
-      <c r="N28" s="5">
-        <v>22</v>
-      </c>
-      <c r="O28" s="10"/>
+      <c r="A28" s="9">
+        <v>30193</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44616</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
       <c r="P28" s="9">
-        <v>24.2</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="9">
-        <v>36.2</v>
-      </c>
-      <c r="R28" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S28" s="5">
-        <v>45</v>
-      </c>
-      <c r="T28" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U28" s="5">
-        <v>50</v>
-      </c>
-      <c r="V28" s="5">
-        <v>30</v>
-      </c>
-      <c r="W28" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S28" s="9">
+        <v>45</v>
+      </c>
+      <c r="T28" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="U28" s="9">
+        <v>50</v>
+      </c>
+      <c r="V28" s="9">
+        <v>30</v>
+      </c>
+      <c r="W28" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="5">
-        <v>10049</v>
-      </c>
-      <c r="B29" s="6">
-        <v>43941</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="5">
-        <v>270</v>
-      </c>
-      <c r="M29" s="5">
-        <v>47</v>
-      </c>
-      <c r="N29" s="9">
-        <v>21.4</v>
-      </c>
-      <c r="O29" s="10"/>
+      <c r="A29" s="9">
+        <v>30194</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44616</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
       <c r="P29" s="9">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="Q29" s="9">
-        <v>21.25</v>
-      </c>
-      <c r="R29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S29" s="5">
-        <v>45</v>
-      </c>
-      <c r="T29" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U29" s="5">
-        <v>50</v>
-      </c>
-      <c r="V29" s="5">
-        <v>30</v>
-      </c>
-      <c r="W29" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S29" s="9">
+        <v>45</v>
+      </c>
+      <c r="T29" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="U29" s="9">
+        <v>50</v>
+      </c>
+      <c r="V29" s="9">
+        <v>30</v>
+      </c>
+      <c r="W29" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="5">
-        <v>10050</v>
-      </c>
-      <c r="B30" s="6">
-        <v>43942</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="5">
-        <v>270</v>
-      </c>
-      <c r="M30" s="5">
-        <v>47</v>
-      </c>
-      <c r="N30" s="9">
-        <v>21.4</v>
-      </c>
-      <c r="O30" s="10"/>
+      <c r="A30" s="9">
+        <v>30195</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44616</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
       <c r="P30" s="9">
-        <v>13.6</v>
+        <v>20</v>
       </c>
       <c r="Q30" s="9">
-        <v>29.7</v>
-      </c>
-      <c r="R30" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S30" s="5">
-        <v>45</v>
-      </c>
-      <c r="T30" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U30" s="5">
-        <v>50</v>
-      </c>
-      <c r="V30" s="5">
-        <v>30</v>
-      </c>
-      <c r="W30" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S30" s="9">
+        <v>45</v>
+      </c>
+      <c r="T30" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="U30" s="9">
+        <v>50</v>
+      </c>
+      <c r="V30" s="9">
+        <v>30</v>
+      </c>
+      <c r="W30" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="5">
-        <v>10051</v>
-      </c>
-      <c r="B31" s="6">
-        <v>43949</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="A31" s="9">
+        <v>30196</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44616</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="5">
-        <v>270</v>
-      </c>
-      <c r="M31" s="9">
-        <v>19.5</v>
-      </c>
-      <c r="N31" s="9">
-        <v>12.2</v>
-      </c>
-      <c r="O31" s="10"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
       <c r="P31" s="9">
-        <v>21.1</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="9">
-        <v>25.85</v>
-      </c>
-      <c r="R31" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S31" s="5">
-        <v>45</v>
-      </c>
-      <c r="T31" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U31" s="5">
-        <v>50</v>
-      </c>
-      <c r="V31" s="5">
-        <v>30</v>
-      </c>
-      <c r="W31" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S31" s="9">
+        <v>45</v>
+      </c>
+      <c r="T31" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="U31" s="9">
+        <v>50</v>
+      </c>
+      <c r="V31" s="9">
+        <v>30</v>
+      </c>
+      <c r="W31" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="5">
-        <v>10052</v>
-      </c>
-      <c r="B32" s="6">
-        <v>43959</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="A32" s="9">
+        <v>30197</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44616</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9">
+        <v>20</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="5">
-        <v>270</v>
-      </c>
-      <c r="M32" s="5">
-        <v>60</v>
-      </c>
-      <c r="N32" s="9">
-        <v>27.25</v>
-      </c>
-      <c r="O32" s="5">
-        <v>187</v>
-      </c>
-      <c r="P32" s="5">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="9">
-        <v>25.75</v>
-      </c>
-      <c r="R32" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S32" s="5">
-        <v>45</v>
-      </c>
-      <c r="T32" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U32" s="5">
-        <v>50</v>
-      </c>
-      <c r="V32" s="5">
-        <v>30</v>
-      </c>
-      <c r="W32" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="S32" s="9">
+        <v>45</v>
+      </c>
+      <c r="T32" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="U32" s="9">
+        <v>50</v>
+      </c>
+      <c r="V32" s="9">
+        <v>30</v>
+      </c>
+      <c r="W32" s="11"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="5">
-        <v>10055</v>
-      </c>
-      <c r="B33" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="5">
-        <v>270</v>
-      </c>
-      <c r="M33" s="5">
-        <v>44</v>
-      </c>
-      <c r="N33" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="O33" s="5">
-        <v>339</v>
+      <c r="A33" s="9">
+        <v>30198</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44616</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="9">
+        <v>0</v>
       </c>
       <c r="P33" s="9">
-        <v>10.8</v>
+        <v>20</v>
       </c>
       <c r="Q33" s="9">
-        <v>21.3</v>
-      </c>
-      <c r="R33" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S33" s="5">
-        <v>45</v>
-      </c>
-      <c r="T33" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U33" s="5">
-        <v>50</v>
-      </c>
-      <c r="V33" s="5">
-        <v>30</v>
-      </c>
-      <c r="W33" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="5">
-        <v>10056</v>
-      </c>
-      <c r="B34" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="5">
-        <v>270</v>
-      </c>
-      <c r="M34" s="5">
-        <v>44</v>
-      </c>
-      <c r="N34" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="O34" s="5">
-        <v>352</v>
-      </c>
-      <c r="P34" s="9">
-        <v>10.2</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>21.5</v>
-      </c>
-      <c r="R34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S34" s="5">
-        <v>45</v>
-      </c>
-      <c r="T34" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U34" s="5">
-        <v>50</v>
-      </c>
-      <c r="V34" s="5">
-        <v>30</v>
-      </c>
-      <c r="W34" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="5">
-        <v>10057</v>
-      </c>
-      <c r="B35" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="5">
-        <v>270</v>
-      </c>
-      <c r="M35" s="5">
-        <v>44</v>
-      </c>
-      <c r="N35" s="9">
-        <v>24.5</v>
-      </c>
-      <c r="O35" s="5">
-        <v>392</v>
-      </c>
-      <c r="P35" s="9">
-        <v>15.2</v>
-      </c>
-      <c r="Q35" s="9">
-        <v>24.4</v>
-      </c>
-      <c r="R35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S35" s="5">
-        <v>45</v>
-      </c>
-      <c r="T35" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U35" s="5">
-        <v>50</v>
-      </c>
-      <c r="V35" s="5">
-        <v>30</v>
-      </c>
-      <c r="W35" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="5">
-        <v>10058</v>
-      </c>
-      <c r="B36" s="6">
-        <v>43971</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="5">
-        <v>270</v>
-      </c>
-      <c r="M36" s="5">
-        <v>43</v>
-      </c>
-      <c r="N36" s="9">
-        <v>22.7</v>
-      </c>
-      <c r="O36" s="5">
-        <v>366</v>
-      </c>
-      <c r="P36" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>24.8</v>
-      </c>
-      <c r="R36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S36" s="5">
-        <v>45</v>
-      </c>
-      <c r="T36" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U36" s="5">
-        <v>50</v>
-      </c>
-      <c r="V36" s="5">
-        <v>30</v>
-      </c>
-      <c r="W36" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="5">
-        <v>10060</v>
-      </c>
-      <c r="B37" s="6">
-        <v>43990</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="5">
-        <v>270</v>
-      </c>
-      <c r="M37" s="5">
-        <v>45</v>
-      </c>
-      <c r="N37" s="9">
-        <v>24.3</v>
-      </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="9">
-        <v>30.8</v>
-      </c>
-      <c r="Q37" s="9">
-        <v>30.8</v>
-      </c>
-      <c r="R37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="S37" s="5">
-        <v>45</v>
-      </c>
-      <c r="T37" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="U37" s="5">
-        <v>50</v>
-      </c>
-      <c r="V37" s="5">
-        <v>30</v>
-      </c>
-      <c r="W37" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="11">
-        <v>30193</v>
-      </c>
-      <c r="B38" s="12">
-        <v>44616</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="11">
         <v>0</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="11">
-        <v>0</v>
-      </c>
-      <c r="P38" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q38" s="11">
-        <v>0</v>
-      </c>
-      <c r="R38" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="S38" s="11">
-        <v>45</v>
-      </c>
-      <c r="T38" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="U38" s="11">
-        <v>50</v>
-      </c>
-      <c r="V38" s="11">
-        <v>30</v>
-      </c>
-      <c r="W38" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="11">
-        <v>30194</v>
-      </c>
-      <c r="B39" s="12">
-        <v>44616</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="11">
-        <v>0</v>
-      </c>
-      <c r="M39" s="15"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="11">
-        <v>0</v>
-      </c>
-      <c r="P39" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q39" s="11">
-        <v>0</v>
-      </c>
-      <c r="R39" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="S39" s="11">
-        <v>45</v>
-      </c>
-      <c r="T39" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="U39" s="11">
-        <v>50</v>
-      </c>
-      <c r="V39" s="11">
-        <v>30</v>
-      </c>
-      <c r="W39" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="11">
-        <v>30195</v>
-      </c>
-      <c r="B40" s="12">
-        <v>44616</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="11">
-        <v>0</v>
-      </c>
-      <c r="M40" s="15"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="11">
-        <v>0</v>
-      </c>
-      <c r="P40" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q40" s="11">
-        <v>0</v>
-      </c>
-      <c r="R40" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="S40" s="11">
-        <v>45</v>
-      </c>
-      <c r="T40" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="U40" s="11">
-        <v>50</v>
-      </c>
-      <c r="V40" s="11">
-        <v>30</v>
-      </c>
-      <c r="W40" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="11">
-        <v>30196</v>
-      </c>
-      <c r="B41" s="12">
-        <v>44616</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="11">
-        <v>0</v>
-      </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="11">
-        <v>0</v>
-      </c>
-      <c r="P41" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q41" s="11">
-        <v>0</v>
-      </c>
-      <c r="R41" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="S41" s="11">
-        <v>45</v>
-      </c>
-      <c r="T41" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="U41" s="11">
-        <v>50</v>
-      </c>
-      <c r="V41" s="11">
-        <v>30</v>
-      </c>
-      <c r="W41" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="11">
-        <v>30197</v>
-      </c>
-      <c r="B42" s="12">
-        <v>44616</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="11">
-        <v>0</v>
-      </c>
-      <c r="M42" s="15"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="11">
-        <v>0</v>
-      </c>
-      <c r="P42" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q42" s="11">
-        <v>0</v>
-      </c>
-      <c r="R42" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="S42" s="11">
-        <v>45</v>
-      </c>
-      <c r="T42" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="U42" s="11">
-        <v>50</v>
-      </c>
-      <c r="V42" s="11">
-        <v>30</v>
-      </c>
-      <c r="W42" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="11">
-        <v>30198</v>
-      </c>
-      <c r="B43" s="12">
-        <v>44616</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="11">
-        <v>0</v>
-      </c>
-      <c r="M43" s="15"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="11">
-        <v>0</v>
-      </c>
-      <c r="P43" s="11">
-        <v>20</v>
-      </c>
-      <c r="Q43" s="11">
-        <v>0</v>
-      </c>
-      <c r="R43" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="S43" s="11">
-        <v>45</v>
-      </c>
-      <c r="T43" s="17">
-        <v>8.5</v>
-      </c>
-      <c r="U43" s="11">
-        <v>50</v>
-      </c>
-      <c r="V43" s="11">
-        <v>30</v>
-      </c>
-      <c r="W43" s="14"/>
+      <c r="R33" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S33" s="9">
+        <v>45</v>
+      </c>
+      <c r="T33" s="12">
+        <v>8.5</v>
+      </c>
+      <c r="U33" s="9">
+        <v>50</v>
+      </c>
+      <c r="V33" s="9">
+        <v>30</v>
+      </c>
+      <c r="W33" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
